--- a/src/main/java/org/example/Excel files/output.xlsx
+++ b/src/main/java/org/example/Excel files/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Price for Mission</t>
+  </si>
+  <si>
+    <t>Vehicle id</t>
   </si>
   <si>
     <t>Vehicle Type</t>
@@ -107,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,34 +144,40 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>4.0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
         <v>1500.0</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" t="n">
+        <v>10.0</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -176,28 +185,31 @@
         <v>5.0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>1500.0</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
+      <c r="G3" t="n">
+        <v>10.0</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/example/Excel files/output.xlsx
+++ b/src/main/java/org/example/Excel files/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Driver id</t>
   </si>
   <si>
     <t>2023-12-03</t>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,22 +150,25 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>4.0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
         <v>1500.0</v>
@@ -171,13 +177,16 @@
         <v>10.0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -185,16 +194,16 @@
         <v>5.0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>1500.0</v>
@@ -203,13 +212,16 @@
         <v>10.0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/example/Excel files/output.xlsx
+++ b/src/main/java/org/example/Excel files/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -47,28 +47,25 @@
     <t>Driver id</t>
   </si>
   <si>
-    <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>2023-12-14</t>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
   </si>
   <si>
     <t>New York</t>
   </si>
   <si>
-    <t>Las Vegas 2</t>
-  </si>
-  <si>
-    <t>BUS</t>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
   </si>
   <si>
     <t>STOCK</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023-11-03</t>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -113,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,7 +153,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -174,7 +171,7 @@
         <v>1500.0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -191,10 +188,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -206,10 +203,10 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>1500.0</v>
+        <v>1600.0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -221,6 +218,41 @@
         <v>17</v>
       </c>
       <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1600.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.0</v>
       </c>
     </row>
